--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3169806.803599125</v>
+        <v>3173212.294723575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>326.2396125556947</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>195.1923213782447</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.24674161676281</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>70.78369009231578</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>234.052811391648</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.436828387929</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.66290552425004</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>139.5297567177292</v>
       </c>
       <c r="W10" t="n">
-        <v>189.5968436493443</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>75.62077850565178</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.26821836278922</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>135.2598233140933</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>138.3467445476588</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>173.1942117550905</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>121.2733567894789</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492315</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.212985142112</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0301397347008</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>80.50796942908586</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>15.11174121957136</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>105.637063089987</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>207.9222911924595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41.45703344346418</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0.7368957119606738</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.6405432696254</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2367.614128840753</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2014.845473570639</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1641.379715309559</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.240383333747</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.8183646524922</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C4" t="n">
-        <v>382.8183646524922</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D4" t="n">
-        <v>382.8183646524922</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>382.8183646524922</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>382.8183646524922</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>382.8183646524922</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>382.8183646524922</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>382.8183646524922</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>382.8183646524922</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.8183646524922</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.851790143458</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C5" t="n">
-        <v>1639.851790143458</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1281.586091536707</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1281.586091536707</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>870.6001867470998</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>452.6363786452866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>125.4416586812895</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1953.491734785137</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1600.723079515023</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1227.257321253943</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>837.1179892781316</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.68376869814</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="C8" t="n">
-        <v>825.7212517577279</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>467.4555531509774</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>81.6673005527332</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4840,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,16 +4886,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005478</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,13 +5026,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364129</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5080,13 +5080,13 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.822894557956</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>314.8452970674332</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>167.9553495695228</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X13" t="n">
-        <v>543.4713593881958</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y13" t="n">
-        <v>543.4713593881958</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="14">
@@ -5278,46 +5278,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,28 +5357,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>654.9300288380085</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C16" t="n">
-        <v>485.9938459101016</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D16" t="n">
-        <v>485.9938459101016</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1819.717381949054</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1597.95076651858</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1597.95076651858</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1343.266278312693</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570251</v>
+        <v>1053.849108275732</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590077</v>
+        <v>825.859557377715</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.3827746590077</v>
+        <v>825.859557377715</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5597,25 +5597,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1024.21345597245</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>734.7962859354897</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>506.8067350374723</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>975.9286436089831</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025902</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,28 +5831,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433621</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998319</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998319</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,16 +6448,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,19 +6466,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6493,22 +6493,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6563,19 +6563,19 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.5038042865474</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>392.5676213586405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V31" t="n">
-        <v>1481.351569195295</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.934399158335</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X31" t="n">
-        <v>963.9448482603173</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y31" t="n">
-        <v>743.1522691167871</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6703,13 +6703,13 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422545</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N32" t="n">
         <v>2667.23671557753</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6782,7 +6782,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6794,13 +6794,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6858,10 +6858,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413794</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998319</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6934,40 +6934,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972662</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>411.3871648742116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1875.022284863203</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1585.919417988847</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V40" t="n">
-        <v>1331.23492978296</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W40" t="n">
-        <v>1041.817759745999</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X40" t="n">
-        <v>813.8282088479815</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>593.0356297044514</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.7429179653792</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C43" t="n">
-        <v>506.8067350374723</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D43" t="n">
-        <v>506.8067350374723</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W43" t="n">
-        <v>1078.183961939149</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X43" t="n">
-        <v>1078.183961939149</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y43" t="n">
-        <v>857.3913827956189</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,7 +7757,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7766,13 +7766,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.3002584566048</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C46" t="n">
-        <v>390.3640755286979</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7839,19 +7839,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1733.83251157124</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.148023365353</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>1189.730853328392</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>961.7413024303746</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>740.9487232868445</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277313</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>192.185308577135</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>180.7381496078623</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>315.1679217109319</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>105.1996354507088</v>
       </c>
       <c r="N32" t="n">
-        <v>105.1996354507098</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570125</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>258.6211785616921</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476822</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>150.0888768833854</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.5637618191481</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>54.50920201734863</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>113.7908987761692</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>52.51544363394669</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>164.938481416134</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270141</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>2.335964134057235</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.10750358912725</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.0409798470833</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>61.60975800864081</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>78.60070714413155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>124.568774815564</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>285.4749424936522</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732102.7947860796</v>
+        <v>732102.7947860797</v>
       </c>
     </row>
     <row r="6">
@@ -26316,46 +26316,46 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="H2" t="n">
         <v>675039.0377078713</v>
       </c>
       <c r="I2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="J2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="K2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>675039.0377078718</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>675039.0377078712</v>
+      </c>
+      <c r="N2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="L2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="M2" t="n">
-        <v>675039.0377078711</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078713</v>
-      </c>
       <c r="O2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="P2" t="n">
-        <v>675039.0377078719</v>
+        <v>675039.0377078716</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="K4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918992</v>
       </c>
     </row>
     <row r="5">
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-158290.1397504409</v>
       </c>
       <c r="C6" t="n">
-        <v>431677.7394641041</v>
+        <v>431677.7394641035</v>
       </c>
       <c r="D6" t="n">
-        <v>431677.7394641032</v>
+        <v>431677.7394641037</v>
       </c>
       <c r="E6" t="n">
-        <v>-167542.3417606964</v>
+        <v>-166937.5823486642</v>
       </c>
       <c r="F6" t="n">
-        <v>559835.0722327097</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="G6" t="n">
-        <v>559835.0722327097</v>
+        <v>560439.8316447424</v>
       </c>
       <c r="H6" t="n">
-        <v>559835.0722327098</v>
+        <v>560439.8316447419</v>
       </c>
       <c r="I6" t="n">
-        <v>559835.0722327101</v>
+        <v>560439.8316447425</v>
       </c>
       <c r="J6" t="n">
-        <v>383411.8530401174</v>
+        <v>384016.6124521493</v>
       </c>
       <c r="K6" t="n">
-        <v>559835.07223271</v>
+        <v>560439.8316447422</v>
       </c>
       <c r="L6" t="n">
-        <v>559835.0722327098</v>
+        <v>560439.8316447424</v>
       </c>
       <c r="M6" t="n">
-        <v>430192.7573937649</v>
+        <v>430797.5168057969</v>
       </c>
       <c r="N6" t="n">
-        <v>559835.0722327097</v>
+        <v>560439.8316447421</v>
       </c>
       <c r="O6" t="n">
-        <v>559835.0722327097</v>
+        <v>560439.8316447424</v>
       </c>
       <c r="P6" t="n">
-        <v>559835.0722327101</v>
+        <v>560439.8316447423</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762112</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.512645914440213</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>16.95321757177416</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>190.337911735332</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>81.14762615254547</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>17.17135611664133</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.8360633830785</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.2131402174614</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>112.6078866060988</v>
       </c>
       <c r="W10" t="n">
-        <v>96.92615468724668</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200632</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>529.3765951325355</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>733.0399850207735</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>867.4697571238434</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>644.1207512809356</v>
       </c>
       <c r="N32" t="n">
-        <v>657.5014708636211</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>685.300852969924</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>766.6741794499112</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359034</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359016</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
